--- a/biology/Médecine/Théodore-Édouard_Fieuzal/Théodore-Édouard_Fieuzal.xlsx
+++ b/biology/Médecine/Théodore-Édouard_Fieuzal/Théodore-Édouard_Fieuzal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore-%C3%89douard_Fieuzal</t>
+          <t>Théodore-Édouard_Fieuzal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Théodore-Édouard Fieuzal, né le 11 mai 1836 à Cahors et mort à 28 juillet 1888 en son domicile dans le 8e arrondissement de Paris[1], est un médecin et ophtalmologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théodore-Édouard Fieuzal, né le 11 mai 1836 à Cahors et mort à 28 juillet 1888 en son domicile dans le 8e arrondissement de Paris, est un médecin et ophtalmologue français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore-%C3%89douard_Fieuzal</t>
+          <t>Théodore-Édouard_Fieuzal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’issue de ses études médicales à Paris, Fieuzal a soutenu sa thèse de doctorat en 1862.
-Il est chirurgien major durant la guerre franco-allemande de 1870, ce qui lui vaut la Légion d’honneur, le 14 janvier 1879[2].
+Il est chirurgien major durant la guerre franco-allemande de 1870, ce qui lui vaut la Légion d’honneur, le 14 janvier 1879.
 Devenu directeur de la clinique de Louis de Wecker, il a été l’un des médecins qui ont soigné son ancien camarade de lycée Léon Gambetta, lorsqu’il a dû se faire énucléer l’œil droit. C’est grâce à l’influence de dernier qu’il a pu, par la suite, établir un établissement de soins oculaires à l’hospice des aveugles de l’Hospice des Quinze-Vingts en 1880, où il a été médecin en chef de 1882 à 1888.
-Il est à l’origine, toujours avec Gambetta et Alphonse Péphau, autre ancien camarade de lycée[3] de la « Société nationale d’assistance pour les aveugles travailleurs » en 1880 et de l’« École Braille », en 1883 à Maisons-Alfort transférée à Saint-Mandé en 1889.
-Il était le directeur de l’Hospice national des Quinze-Vingts, lors de la fondation de la Clinique nationale ophtalmologique annexée à l’Hospice, il est mort prématurément des suites d’un érysipèle, après six jours de maladie seulement[4]. Quelques semaines avant sa mort, il avait publié Annales du laboratoire de l’Hospice.
+Il est à l’origine, toujours avec Gambetta et Alphonse Péphau, autre ancien camarade de lycée de la « Société nationale d’assistance pour les aveugles travailleurs » en 1880 et de l’« École Braille », en 1883 à Maisons-Alfort transférée à Saint-Mandé en 1889.
+Il était le directeur de l’Hospice national des Quinze-Vingts, lors de la fondation de la Clinique nationale ophtalmologique annexée à l’Hospice, il est mort prématurément des suites d’un érysipèle, après six jours de maladie seulement. Quelques semaines avant sa mort, il avait publié Annales du laboratoire de l’Hospice.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore-%C3%89douard_Fieuzal</t>
+          <t>Théodore-Édouard_Fieuzal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De l’accouchement prématuré à l’aide d’un nouveau moyen , [Thèse de Médecine], imp. Parent (Paris), 1863.
  Clinique ophtalmologique de l’hospice des Quinze-Vingts : compte-rendu statistique des opérations pratiquées pendant l’année 1874, Paris, Vve Adrien Delahaye, 1876, Hôpital des Quinze-Vingts (Paris) éditeur scientifique, lire en ligne sur Gallica.
